--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Spp1-Itgb5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H2">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J2">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N2">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O2">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P2">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q2">
-        <v>28.5183719509415</v>
+        <v>3361.498260289995</v>
       </c>
       <c r="R2">
-        <v>28.5183719509415</v>
+        <v>30253.48434260996</v>
       </c>
       <c r="S2">
-        <v>0.0005368040448364189</v>
+        <v>0.02866236705346352</v>
       </c>
       <c r="T2">
-        <v>0.0005368040448364189</v>
+        <v>0.02866236705346352</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H3">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J3">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N3">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O3">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P3">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q3">
-        <v>159.0047537647812</v>
+        <v>17541.53936127327</v>
       </c>
       <c r="R3">
-        <v>159.0047537647812</v>
+        <v>157873.8542514594</v>
       </c>
       <c r="S3">
-        <v>0.002992961699075373</v>
+        <v>0.1495708166191993</v>
       </c>
       <c r="T3">
-        <v>0.002992961699075373</v>
+        <v>0.1495708166191993</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H4">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J4">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N4">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O4">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P4">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q4">
-        <v>154.2908721418536</v>
+        <v>17718.88724922152</v>
       </c>
       <c r="R4">
-        <v>154.2908721418536</v>
+        <v>159469.9852429936</v>
       </c>
       <c r="S4">
-        <v>0.002904231854103139</v>
+        <v>0.1510830025157616</v>
       </c>
       <c r="T4">
-        <v>0.002904231854103139</v>
+        <v>0.1510830025157616</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.21764362749015</v>
+        <v>463.732605</v>
       </c>
       <c r="H5">
-        <v>4.21764362749015</v>
+        <v>1391.197815</v>
       </c>
       <c r="I5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="J5">
-        <v>0.007109888501373486</v>
+        <v>0.3632113435366598</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N5">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O5">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P5">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q5">
-        <v>35.90753155764862</v>
+        <v>3975.195497490524</v>
       </c>
       <c r="R5">
-        <v>35.90753155764862</v>
+        <v>35776.75947741472</v>
       </c>
       <c r="S5">
-        <v>0.0006758909033585553</v>
+        <v>0.03389515734823539</v>
       </c>
       <c r="T5">
-        <v>0.0006758909033585553</v>
+        <v>0.03389515734823539</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H6">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J6">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N6">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O6">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P6">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q6">
-        <v>81.99889331323621</v>
+        <v>88.77316218130358</v>
       </c>
       <c r="R6">
-        <v>81.99889331323621</v>
+        <v>798.9584596317321</v>
       </c>
       <c r="S6">
-        <v>0.001543473017266752</v>
+        <v>0.000756938948621577</v>
       </c>
       <c r="T6">
-        <v>0.001543473017266752</v>
+        <v>0.0007569389486215769</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H7">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J7">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N7">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O7">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P7">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q7">
-        <v>457.1864713274856</v>
+        <v>463.2511451883636</v>
       </c>
       <c r="R7">
-        <v>457.1864713274856</v>
+        <v>4169.260306695272</v>
       </c>
       <c r="S7">
-        <v>0.008605664708885373</v>
+        <v>0.003949986979966701</v>
       </c>
       <c r="T7">
-        <v>0.008605664708885373</v>
+        <v>0.003949986979966701</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H8">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J8">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N8">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O8">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P8">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q8">
-        <v>443.6326444486374</v>
+        <v>467.9346915121338</v>
       </c>
       <c r="R8">
-        <v>443.6326444486374</v>
+        <v>4211.412223609204</v>
       </c>
       <c r="S8">
-        <v>0.008350539728255542</v>
+        <v>0.003989922006984154</v>
       </c>
       <c r="T8">
-        <v>0.008350539728255542</v>
+        <v>0.003989922006984154</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.1269934496523</v>
+        <v>12.24662533333333</v>
       </c>
       <c r="H9">
-        <v>12.1269934496523</v>
+        <v>36.739876</v>
       </c>
       <c r="I9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444229</v>
       </c>
       <c r="J9">
-        <v>0.02044306700592992</v>
+        <v>0.009591978638444227</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N9">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O9">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P9">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q9">
-        <v>103.2449487089352</v>
+        <v>104.9801746946822</v>
       </c>
       <c r="R9">
-        <v>103.2449487089352</v>
+        <v>944.82157225214</v>
       </c>
       <c r="S9">
-        <v>0.001943389551522254</v>
+        <v>0.0008951307028717964</v>
       </c>
       <c r="T9">
-        <v>0.001943389551522254</v>
+        <v>0.0008951307028717962</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H10">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J10">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N10">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O10">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P10">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q10">
-        <v>3662.083198490039</v>
+        <v>4999.984042697048</v>
       </c>
       <c r="R10">
-        <v>3662.083198490039</v>
+        <v>44999.85638427344</v>
       </c>
       <c r="S10">
-        <v>0.06893174255734624</v>
+        <v>0.04263318520381437</v>
       </c>
       <c r="T10">
-        <v>0.06893174255734624</v>
+        <v>0.04263318520381437</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H11">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J11">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N11">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O11">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P11">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q11">
-        <v>20418.01818994886</v>
+        <v>26091.76328508409</v>
       </c>
       <c r="R11">
-        <v>20418.01818994886</v>
+        <v>234825.8695657568</v>
       </c>
       <c r="S11">
-        <v>0.3843303106770188</v>
+        <v>0.2224757053078606</v>
       </c>
       <c r="T11">
-        <v>0.3843303106770188</v>
+        <v>0.2224757053078606</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H12">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J12">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N12">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O12">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P12">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q12">
-        <v>19812.70219502847</v>
+        <v>26355.55536262952</v>
       </c>
       <c r="R12">
-        <v>19812.70219502847</v>
+        <v>237199.9982636656</v>
       </c>
       <c r="S12">
-        <v>0.3729363897674937</v>
+        <v>0.2247249717857646</v>
       </c>
       <c r="T12">
-        <v>0.3729363897674937</v>
+        <v>0.2247249717857646</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>541.593394322089</v>
+        <v>689.7685036666667</v>
       </c>
       <c r="H13">
-        <v>541.593394322089</v>
+        <v>2069.305511</v>
       </c>
       <c r="I13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="J13">
-        <v>0.9129905195432374</v>
+        <v>0.5402504422695089</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N13">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O13">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P13">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q13">
-        <v>4610.935303134465</v>
+        <v>5912.814023690462</v>
       </c>
       <c r="R13">
-        <v>4610.935303134465</v>
+        <v>53215.32621321416</v>
       </c>
       <c r="S13">
-        <v>0.08679207654137865</v>
+        <v>0.05041657997206935</v>
       </c>
       <c r="T13">
-        <v>0.08679207654137865</v>
+        <v>0.05041657997206935</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H14">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J14">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>6.76168364843862</v>
+        <v>7.248785666666667</v>
       </c>
       <c r="N14">
-        <v>6.76168364843862</v>
+        <v>21.746357</v>
       </c>
       <c r="O14">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="P14">
-        <v>0.07550104966241303</v>
+        <v>0.07891374419744837</v>
       </c>
       <c r="Q14">
-        <v>238.4852157796217</v>
+        <v>804.68197031599</v>
       </c>
       <c r="R14">
-        <v>238.4852157796217</v>
+        <v>7242.137732843911</v>
       </c>
       <c r="S14">
-        <v>0.004489030042963609</v>
+        <v>0.006861252991548897</v>
       </c>
       <c r="T14">
-        <v>0.004489030042963609</v>
+        <v>0.006861252991548897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H15">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J15">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>37.6999025542142</v>
+        <v>37.82684066666667</v>
       </c>
       <c r="N15">
-        <v>37.6999025542142</v>
+        <v>113.480522</v>
       </c>
       <c r="O15">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="P15">
-        <v>0.4209576139621872</v>
+        <v>0.4118010609547572</v>
       </c>
       <c r="Q15">
-        <v>1329.67909517456</v>
+        <v>4199.12769920254</v>
       </c>
       <c r="R15">
-        <v>1329.67909517456</v>
+        <v>37792.14929282286</v>
       </c>
       <c r="S15">
-        <v>0.02502867687720755</v>
+        <v>0.03580455204773058</v>
       </c>
       <c r="T15">
-        <v>0.02502867687720755</v>
+        <v>0.03580455204773058</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H16">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J16">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>36.582244914246</v>
+        <v>38.20927633333334</v>
       </c>
       <c r="N16">
-        <v>36.582244914246</v>
+        <v>114.627829</v>
       </c>
       <c r="O16">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="P16">
-        <v>0.4084778338706859</v>
+        <v>0.4159644383477588</v>
       </c>
       <c r="Q16">
-        <v>1290.259205500025</v>
+        <v>4241.58158043503</v>
       </c>
       <c r="R16">
-        <v>1290.259205500025</v>
+        <v>38174.23422391527</v>
       </c>
       <c r="S16">
-        <v>0.02428667252083343</v>
+        <v>0.03616654203924848</v>
       </c>
       <c r="T16">
-        <v>0.02428667252083343</v>
+        <v>0.03616654203924848</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>35.2700936895638</v>
+        <v>111.00921</v>
       </c>
       <c r="H17">
-        <v>35.2700936895638</v>
+        <v>333.02763</v>
       </c>
       <c r="I17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="J17">
-        <v>0.05945652494945908</v>
+        <v>0.08694623555538696</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.51364760256347</v>
+        <v>8.572171666666666</v>
       </c>
       <c r="N17">
-        <v>8.51364760256347</v>
+        <v>25.716515</v>
       </c>
       <c r="O17">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="P17">
-        <v>0.09506350250471396</v>
+        <v>0.09332075650003555</v>
       </c>
       <c r="Q17">
-        <v>300.2771485823438</v>
+        <v>951.5900047010499</v>
       </c>
       <c r="R17">
-        <v>300.2771485823438</v>
+        <v>8564.310042309449</v>
       </c>
       <c r="S17">
-        <v>0.005652145508454491</v>
+        <v>0.008113888476858998</v>
       </c>
       <c r="T17">
-        <v>0.005652145508454491</v>
+        <v>0.008113888476858998</v>
       </c>
     </row>
   </sheetData>
